--- a/data/gas-demand-and-supply-so.xlsx
+++ b/data/gas-demand-and-supply-so.xlsx
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38C57F8-4760-CB49-B586-7987307EB978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C892F0-1355-A74F-85B8-9A8FDFF5A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$13</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
   <si>
     <t>Gas demand and supply source by month (GB)</t>
   </si>
@@ -542,6 +535,9 @@
   <si>
     <t>Storage Withdrawals (bcm)</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -696,6 +692,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -998,7 +1002,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1041,8 +1045,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1062,12 +1067,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1101,6 +1108,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -21923,10 +21931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="EU166" sqref="EU166"/>
+    <sheetView tabSelected="1" topLeftCell="K59" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21942,23 +21950,23 @@
     <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -21998,8 +22006,11 @@
       <c r="M2" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -22039,8 +22050,12 @@
         <f>H3+K3</f>
         <v>-0.2</v>
       </c>
+      <c r="N3" s="7">
+        <f>SUM(C3:L3)</f>
+        <v>6.4300000000000006</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -22080,8 +22095,12 @@
         <f t="shared" ref="M4:M67" si="1">H4+K4</f>
         <v>-0.06</v>
       </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N67" si="2">SUM(C4:L4)</f>
+        <v>8.1499999999999968</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -22121,8 +22140,12 @@
         <f t="shared" si="1"/>
         <v>0.66</v>
       </c>
+      <c r="N5" s="7">
+        <f t="shared" si="2"/>
+        <v>10.659999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -22162,8 +22185,12 @@
         <f t="shared" si="1"/>
         <v>1.47</v>
       </c>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>11.61</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -22203,8 +22230,12 @@
         <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
+      <c r="N7" s="7">
+        <f t="shared" si="2"/>
+        <v>9.9700000000000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -22244,8 +22275,12 @@
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
+      <c r="N8" s="7">
+        <f t="shared" si="2"/>
+        <v>9.490000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -22285,8 +22320,12 @@
         <f t="shared" si="1"/>
         <v>-0.74</v>
       </c>
+      <c r="N9" s="7">
+        <f t="shared" si="2"/>
+        <v>6.8700000000000019</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -22326,8 +22365,12 @@
         <f t="shared" si="1"/>
         <v>-0.71</v>
       </c>
+      <c r="N10" s="7">
+        <f t="shared" si="2"/>
+        <v>6.2199999999999989</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -22367,8 +22410,12 @@
         <f t="shared" si="1"/>
         <v>-0.84000000000000008</v>
       </c>
+      <c r="N11" s="7">
+        <f t="shared" si="2"/>
+        <v>4.6500000000000004</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -22408,8 +22455,12 @@
         <f t="shared" si="1"/>
         <v>-0.61</v>
       </c>
+      <c r="N12" s="7">
+        <f t="shared" si="2"/>
+        <v>4.29</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -22449,8 +22500,12 @@
         <f t="shared" si="1"/>
         <v>-0.53</v>
       </c>
+      <c r="N13" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5299999999999994</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -22490,8 +22545,12 @@
         <f t="shared" si="1"/>
         <v>-0.31</v>
       </c>
+      <c r="N14" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9299999999999988</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -22531,8 +22590,12 @@
         <f t="shared" si="1"/>
         <v>-0.14999999999999997</v>
       </c>
+      <c r="N15" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4700000000000006</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -22572,8 +22635,12 @@
         <f t="shared" si="1"/>
         <v>0.36999999999999994</v>
       </c>
+      <c r="N16" s="7">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -22613,8 +22680,12 @@
         <f t="shared" si="1"/>
         <v>1.24</v>
       </c>
+      <c r="N17" s="7">
+        <f t="shared" si="2"/>
+        <v>11.600000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -22654,8 +22725,12 @@
         <f t="shared" si="1"/>
         <v>0.45000000000000007</v>
       </c>
+      <c r="N18" s="7">
+        <f t="shared" si="2"/>
+        <v>10.15</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -22695,8 +22770,12 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
+      <c r="N19" s="7">
+        <f t="shared" si="2"/>
+        <v>8.0100000000000016</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -22736,8 +22815,12 @@
         <f t="shared" si="1"/>
         <v>-0.31999999999999995</v>
       </c>
+      <c r="N20" s="7">
+        <f t="shared" si="2"/>
+        <v>7.9500000000000011</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -22777,8 +22860,12 @@
         <f t="shared" si="1"/>
         <v>-0.93</v>
       </c>
+      <c r="N21" s="7">
+        <f t="shared" si="2"/>
+        <v>5.2700000000000014</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -22818,8 +22905,12 @@
         <f t="shared" si="1"/>
         <v>-0.59000000000000008</v>
       </c>
+      <c r="N22" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0199999999999996</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -22859,8 +22950,12 @@
         <f t="shared" si="1"/>
         <v>-0.52</v>
       </c>
+      <c r="N23" s="7">
+        <f t="shared" si="2"/>
+        <v>4.2699999999999996</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -22900,8 +22995,12 @@
         <f t="shared" si="1"/>
         <v>-0.6399999999999999</v>
       </c>
+      <c r="N24" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1900000000000004</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -22941,8 +23040,12 @@
         <f t="shared" si="1"/>
         <v>-0.13999999999999999</v>
       </c>
+      <c r="N25" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1400000000000006</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -22982,8 +23085,12 @@
         <f t="shared" si="1"/>
         <v>-0.37</v>
       </c>
+      <c r="N26" s="7">
+        <f t="shared" si="2"/>
+        <v>4.4400000000000004</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -23023,8 +23130,12 @@
         <f t="shared" si="1"/>
         <v>-0.10999999999999999</v>
       </c>
+      <c r="N27" s="7">
+        <f t="shared" si="2"/>
+        <v>5.45</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -23064,8 +23175,12 @@
         <f t="shared" si="1"/>
         <v>-4.0000000000000008E-2</v>
       </c>
+      <c r="N28" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4299999999999988</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -23105,8 +23220,12 @@
         <f t="shared" si="1"/>
         <v>0.26999999999999996</v>
       </c>
+      <c r="N29" s="7">
+        <f t="shared" si="2"/>
+        <v>8.1099999999999977</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -23146,8 +23265,12 @@
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
+      <c r="N30" s="7">
+        <f t="shared" si="2"/>
+        <v>8.4599999999999973</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -23187,8 +23310,12 @@
         <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
+      <c r="N31" s="7">
+        <f t="shared" si="2"/>
+        <v>8.44</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -23228,8 +23355,12 @@
         <f t="shared" si="1"/>
         <v>-0.82</v>
       </c>
+      <c r="N32" s="7">
+        <f t="shared" si="2"/>
+        <v>6.2700000000000005</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -23269,8 +23400,12 @@
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="N33" s="7">
+        <f t="shared" si="2"/>
+        <v>6.1300000000000017</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -23310,8 +23445,12 @@
         <f t="shared" si="1"/>
         <v>-0.48</v>
       </c>
+      <c r="N34" s="7">
+        <f t="shared" si="2"/>
+        <v>4.99</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -23351,8 +23490,12 @@
         <f t="shared" si="1"/>
         <v>-0.75</v>
       </c>
+      <c r="N35" s="7">
+        <f t="shared" si="2"/>
+        <v>3.93</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -23392,8 +23535,12 @@
         <f t="shared" si="1"/>
         <v>-0.6</v>
       </c>
+      <c r="N36" s="7">
+        <f t="shared" si="2"/>
+        <v>3.4900000000000011</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -23433,8 +23580,12 @@
         <f t="shared" si="1"/>
         <v>-0.51</v>
       </c>
+      <c r="N37" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1300000000000003</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -23474,8 +23625,12 @@
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
+      <c r="N38" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5499999999999994</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -23515,8 +23670,12 @@
         <f t="shared" si="1"/>
         <v>-0.32</v>
       </c>
+      <c r="N39" s="7">
+        <f t="shared" si="2"/>
+        <v>5.6199999999999992</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -23556,8 +23715,12 @@
         <f t="shared" si="1"/>
         <v>9.9999999999999978E-2</v>
       </c>
+      <c r="N40" s="7">
+        <f t="shared" si="2"/>
+        <v>7.16</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -23597,8 +23760,12 @@
         <f t="shared" si="1"/>
         <v>0.36000000000000004</v>
       </c>
+      <c r="N41" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2900000000000009</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -23638,8 +23805,12 @@
         <f t="shared" si="1"/>
         <v>1.21</v>
       </c>
+      <c r="N42" s="7">
+        <f t="shared" si="2"/>
+        <v>8.81</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -23679,8 +23850,12 @@
         <f t="shared" si="1"/>
         <v>1.55</v>
       </c>
+      <c r="N43" s="7">
+        <f t="shared" si="2"/>
+        <v>8.4699999999999989</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -23720,8 +23895,12 @@
         <f t="shared" si="1"/>
         <v>0.59000000000000008</v>
       </c>
+      <c r="N44" s="7">
+        <f t="shared" si="2"/>
+        <v>9.01</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -23761,8 +23940,12 @@
         <f t="shared" si="1"/>
         <v>-0.59000000000000008</v>
       </c>
+      <c r="N45" s="7">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000018</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -23802,8 +23985,12 @@
         <f t="shared" si="1"/>
         <v>-0.65999999999999992</v>
       </c>
+      <c r="N46" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7799999999999994</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -23843,8 +24030,12 @@
         <f t="shared" si="1"/>
         <v>-1.2000000000000002</v>
       </c>
+      <c r="N47" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8599999999999985</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -23884,8 +24075,12 @@
         <f t="shared" si="1"/>
         <v>-0.64</v>
       </c>
+      <c r="N48" s="7">
+        <f t="shared" si="2"/>
+        <v>3.0299999999999994</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
@@ -23925,8 +24120,12 @@
         <f t="shared" si="1"/>
         <v>-0.62</v>
       </c>
+      <c r="N49" s="7">
+        <f t="shared" si="2"/>
+        <v>2.8200000000000003</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -23966,8 +24165,12 @@
         <f t="shared" si="1"/>
         <v>-9.9999999999999978E-2</v>
       </c>
+      <c r="N50" s="7">
+        <f t="shared" si="2"/>
+        <v>3.6199999999999997</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
@@ -24007,8 +24210,12 @@
         <f t="shared" si="1"/>
         <v>-0.41</v>
       </c>
+      <c r="N51" s="7">
+        <f t="shared" si="2"/>
+        <v>4.6000000000000005</v>
+      </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -24048,8 +24255,12 @@
         <f t="shared" si="1"/>
         <v>0.11000000000000001</v>
       </c>
+      <c r="N52" s="7">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
@@ -24089,8 +24300,12 @@
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
+      <c r="N53" s="7">
+        <f t="shared" si="2"/>
+        <v>7.5299999999999994</v>
+      </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -24130,8 +24345,12 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
+      <c r="N54" s="7">
+        <f t="shared" si="2"/>
+        <v>7.9700000000000024</v>
+      </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
@@ -24171,8 +24390,12 @@
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
+      <c r="N55" s="7">
+        <f t="shared" si="2"/>
+        <v>7.1100000000000012</v>
+      </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -24212,8 +24435,12 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
+      <c r="N56" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -24253,8 +24480,12 @@
         <f t="shared" si="1"/>
         <v>-0.47</v>
       </c>
+      <c r="N57" s="7">
+        <f t="shared" si="2"/>
+        <v>4.6400000000000006</v>
+      </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
@@ -24294,8 +24525,12 @@
         <f t="shared" si="1"/>
         <v>-0.43</v>
       </c>
+      <c r="N58" s="7">
+        <f t="shared" si="2"/>
+        <v>4.21</v>
+      </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -24335,8 +24570,12 @@
         <f t="shared" si="1"/>
         <v>-0.79</v>
       </c>
+      <c r="N59" s="7">
+        <f t="shared" si="2"/>
+        <v>3.59</v>
+      </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -24376,8 +24615,12 @@
         <f t="shared" si="1"/>
         <v>-0.41</v>
       </c>
+      <c r="N60" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5900000000000003</v>
+      </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -24417,8 +24660,12 @@
         <f t="shared" si="1"/>
         <v>-0.18</v>
       </c>
+      <c r="N61" s="7">
+        <f t="shared" si="2"/>
+        <v>3.6100000000000012</v>
+      </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
@@ -24458,8 +24705,12 @@
         <f t="shared" si="1"/>
         <v>-4.9999999999999989E-2</v>
       </c>
+      <c r="N62" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5900000000000007</v>
+      </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
@@ -24499,8 +24750,12 @@
         <f t="shared" si="1"/>
         <v>-0.15000000000000002</v>
       </c>
+      <c r="N63" s="7">
+        <f t="shared" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
@@ -24540,8 +24795,12 @@
         <f t="shared" si="1"/>
         <v>0.18999999999999997</v>
       </c>
+      <c r="N64" s="7">
+        <f t="shared" si="2"/>
+        <v>6.42</v>
+      </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
@@ -24581,8 +24840,12 @@
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
+      <c r="N65" s="7">
+        <f t="shared" si="2"/>
+        <v>7.7799999999999994</v>
+      </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
@@ -24622,8 +24885,12 @@
         <f t="shared" si="1"/>
         <v>1.3599999999999999</v>
       </c>
+      <c r="N66" s="7">
+        <f t="shared" si="2"/>
+        <v>8.3500000000000014</v>
+      </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
@@ -24663,13 +24930,17 @@
         <f t="shared" si="1"/>
         <v>1.31</v>
       </c>
+      <c r="N67" s="7">
+        <f t="shared" si="2"/>
+        <v>7.8199999999999994</v>
+      </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="6" t="str">
-        <f t="shared" ref="B68:B131" si="2">TEXT(A68,"mmm yy")</f>
+        <f t="shared" ref="B68:B131" si="3">TEXT(A68,"mmm yy")</f>
         <v>Mar 15</v>
       </c>
       <c r="C68" s="2">
@@ -24701,16 +24972,20 @@
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="7">
-        <f t="shared" ref="M68:M131" si="3">H68+K68</f>
+        <f t="shared" ref="M68:M131" si="4">H68+K68</f>
         <v>0.47</v>
       </c>
+      <c r="N68" s="7">
+        <f t="shared" ref="N68:N131" si="5">SUM(C68:L68)</f>
+        <v>7.16</v>
+      </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Apr 15</v>
       </c>
       <c r="C69" s="2">
@@ -24742,16 +25017,20 @@
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
+      <c r="N69" s="7">
+        <f t="shared" si="5"/>
+        <v>4.7500000000000009</v>
+      </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>May 15</v>
       </c>
       <c r="C70" s="2">
@@ -24783,16 +25062,20 @@
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
+      <c r="N70" s="7">
+        <f t="shared" si="5"/>
+        <v>4.2800000000000011</v>
+      </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jun 15</v>
       </c>
       <c r="C71" s="2">
@@ -24824,16 +25107,20 @@
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.88</v>
       </c>
+      <c r="N71" s="7">
+        <f t="shared" si="5"/>
+        <v>3.4600000000000009</v>
+      </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jul 15</v>
       </c>
       <c r="C72" s="2">
@@ -24865,16 +25152,20 @@
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.65999999999999992</v>
       </c>
+      <c r="N72" s="7">
+        <f t="shared" si="5"/>
+        <v>3.22</v>
+      </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Aug 15</v>
       </c>
       <c r="C73" s="2">
@@ -24906,16 +25197,20 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.98000000000000009</v>
       </c>
+      <c r="N73" s="7">
+        <f t="shared" si="5"/>
+        <v>3.0999999999999996</v>
+      </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sep 15</v>
       </c>
       <c r="C74" s="2">
@@ -24947,16 +25242,20 @@
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
+      <c r="N74" s="7">
+        <f t="shared" si="5"/>
+        <v>4.1199999999999992</v>
+      </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Oct 15</v>
       </c>
       <c r="C75" s="2">
@@ -24988,16 +25287,20 @@
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.38000000000000006</v>
       </c>
+      <c r="N75" s="7">
+        <f t="shared" si="5"/>
+        <v>5.1699999999999982</v>
+      </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Nov 15</v>
       </c>
       <c r="C76" s="2">
@@ -25029,16 +25332,20 @@
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0000000000000027E-2</v>
       </c>
+      <c r="N76" s="7">
+        <f t="shared" si="5"/>
+        <v>6.2900000000000009</v>
+      </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dec 15</v>
       </c>
       <c r="C77" s="2">
@@ -25070,16 +25377,20 @@
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N77" s="7">
+        <f t="shared" si="5"/>
+        <v>6.4499999999999993</v>
+      </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jan 16</v>
       </c>
       <c r="C78" s="2">
@@ -25111,19 +25422,23 @@
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3599999999999999</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N78" s="7">
+        <f t="shared" si="5"/>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="R78" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Feb 16</v>
       </c>
       <c r="C79" s="2">
@@ -25155,19 +25470,23 @@
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.04</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" s="7">
+        <f t="shared" si="5"/>
+        <v>7.98</v>
+      </c>
+      <c r="R79" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mar 16</v>
       </c>
       <c r="C80" s="2">
@@ -25199,19 +25518,23 @@
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48999999999999994</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N80" s="7">
+        <f t="shared" si="5"/>
+        <v>8.07</v>
+      </c>
+      <c r="R80" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Apr 16</v>
       </c>
       <c r="C81" s="2">
@@ -25243,16 +25566,20 @@
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34527429999999998</v>
       </c>
+      <c r="N81" s="7">
+        <f t="shared" si="5"/>
+        <v>6.6137539000000007</v>
+      </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>May 16</v>
       </c>
       <c r="C82" s="2">
@@ -25284,16 +25611,20 @@
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.45826610000000001</v>
       </c>
+      <c r="N82" s="7">
+        <f t="shared" si="5"/>
+        <v>4.6645424999999987</v>
+      </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jun 16</v>
       </c>
       <c r="C83" s="2">
@@ -25325,16 +25656,20 @@
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.69387189999999999</v>
       </c>
+      <c r="N83" s="7">
+        <f t="shared" si="5"/>
+        <v>4.0477120000000006</v>
+      </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jul 16</v>
       </c>
       <c r="C84" s="2">
@@ -25366,16 +25701,20 @@
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.45475894999999994</v>
       </c>
+      <c r="N84" s="7">
+        <f t="shared" si="5"/>
+        <v>3.6205912500000004</v>
+      </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B85" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Aug 16</v>
       </c>
       <c r="C85" s="2">
@@ -25407,16 +25746,20 @@
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3490200000000008E-2</v>
       </c>
+      <c r="N85" s="7">
+        <f t="shared" si="5"/>
+        <v>3.4916834800000003</v>
+      </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sep 16</v>
       </c>
       <c r="C86" s="2">
@@ -25448,16 +25791,20 @@
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.3109669999999988E-2</v>
       </c>
+      <c r="N86" s="7">
+        <f t="shared" si="5"/>
+        <v>3.6133005300000005</v>
+      </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Oct 16</v>
       </c>
       <c r="C87" s="2">
@@ -25489,16 +25836,20 @@
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.8840700000000024E-2</v>
       </c>
+      <c r="N87" s="7">
+        <f t="shared" si="5"/>
+        <v>6.0802948400000005</v>
+      </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Nov 16</v>
       </c>
       <c r="C88" s="2">
@@ -25530,16 +25881,20 @@
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17000950000000001</v>
       </c>
+      <c r="N88" s="7">
+        <f t="shared" si="5"/>
+        <v>8.3692368199999976</v>
+      </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B89" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dec 16</v>
       </c>
       <c r="C89" s="2">
@@ -25571,16 +25926,20 @@
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10403320000000005</v>
       </c>
+      <c r="N89" s="7">
+        <f t="shared" si="5"/>
+        <v>8.5504281599999992</v>
+      </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jan 17</v>
       </c>
       <c r="C90" s="2">
@@ -25612,16 +25971,20 @@
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88513960000000003</v>
       </c>
+      <c r="N90" s="7">
+        <f t="shared" si="5"/>
+        <v>9.8060421000000009</v>
+      </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Feb 17</v>
       </c>
       <c r="C91" s="2">
@@ -25653,16 +26016,20 @@
       </c>
       <c r="L91" s="3"/>
       <c r="M91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23193290000000005</v>
       </c>
+      <c r="N91" s="7">
+        <f t="shared" si="5"/>
+        <v>7.6644632999999986</v>
+      </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mar 17</v>
       </c>
       <c r="C92" s="2">
@@ -25694,16 +26061,20 @@
       </c>
       <c r="L92" s="3"/>
       <c r="M92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1395885</v>
       </c>
+      <c r="N92" s="7">
+        <f t="shared" si="5"/>
+        <v>7.1537218999999999</v>
+      </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Apr 17</v>
       </c>
       <c r="C93" s="2">
@@ -25735,16 +26106,20 @@
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38342329999999997</v>
       </c>
+      <c r="N93" s="7">
+        <f t="shared" si="5"/>
+        <v>5.6620775000000014</v>
+      </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>May 17</v>
       </c>
       <c r="C94" s="2">
@@ -25776,16 +26151,20 @@
       </c>
       <c r="L94" s="3"/>
       <c r="M94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9205599999999987E-2</v>
       </c>
+      <c r="N94" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5449830999999996</v>
+      </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B95" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jun 17</v>
       </c>
       <c r="C95" s="2">
@@ -25817,16 +26196,20 @@
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.28804000000000002</v>
       </c>
+      <c r="N95" s="7">
+        <f t="shared" si="5"/>
+        <v>3.5300084000000003</v>
+      </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jul 17</v>
       </c>
       <c r="C96" s="2">
@@ -25858,16 +26241,20 @@
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.2168284</v>
       </c>
+      <c r="N96" s="7">
+        <f t="shared" si="5"/>
+        <v>3.4893467999999994</v>
+      </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Aug 17</v>
       </c>
       <c r="C97" s="2">
@@ -25899,16 +26286,20 @@
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.12100029999999998</v>
       </c>
+      <c r="N97" s="7">
+        <f t="shared" si="5"/>
+        <v>3.3982454000000009</v>
+      </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sep 17</v>
       </c>
       <c r="C98" s="2">
@@ -25940,16 +26331,20 @@
       </c>
       <c r="L98" s="3"/>
       <c r="M98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.258631</v>
       </c>
+      <c r="N98" s="7">
+        <f t="shared" si="5"/>
+        <v>4.1436710000000003</v>
+      </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B99" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Oct 17</v>
       </c>
       <c r="C99" s="2">
@@ -25981,16 +26376,20 @@
       </c>
       <c r="L99" s="3"/>
       <c r="M99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1020759</v>
       </c>
+      <c r="N99" s="7">
+        <f t="shared" si="5"/>
+        <v>5.2915314999999987</v>
+      </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B100" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Nov 17</v>
       </c>
       <c r="C100" s="2">
@@ -26022,16 +26421,20 @@
       </c>
       <c r="L100" s="3"/>
       <c r="M100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28778569999999998</v>
       </c>
+      <c r="N100" s="7">
+        <f t="shared" si="5"/>
+        <v>7.7851116000000005</v>
+      </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B101" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dec 17</v>
       </c>
       <c r="C101" s="2">
@@ -26063,16 +26466,20 @@
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35457650000000007</v>
       </c>
+      <c r="N101" s="7">
+        <f t="shared" si="5"/>
+        <v>8.954372600000001</v>
+      </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B102" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jan 18</v>
       </c>
       <c r="C102" s="2">
@@ -26104,16 +26511,20 @@
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12981280000000001</v>
       </c>
+      <c r="N102" s="7">
+        <f t="shared" si="5"/>
+        <v>9.4257394999999988</v>
+      </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Feb 18</v>
       </c>
       <c r="C103" s="2">
@@ -26145,16 +26556,20 @@
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62420720000000007</v>
       </c>
+      <c r="N103" s="7">
+        <f t="shared" si="5"/>
+        <v>8.9138660999999981</v>
+      </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mar 18</v>
       </c>
       <c r="C104" s="2">
@@ -26186,16 +26601,20 @@
       </c>
       <c r="L104" s="3"/>
       <c r="M104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58660350000000006</v>
       </c>
+      <c r="N104" s="7">
+        <f t="shared" si="5"/>
+        <v>8.8364741000000002</v>
+      </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B105" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Apr 18</v>
       </c>
       <c r="C105" s="2">
@@ -26227,16 +26646,20 @@
       </c>
       <c r="L105" s="3"/>
       <c r="M105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11591560000000001</v>
       </c>
+      <c r="N105" s="7">
+        <f t="shared" si="5"/>
+        <v>6.1757496000000005</v>
+      </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>May 18</v>
       </c>
       <c r="C106" s="2">
@@ -26268,16 +26691,20 @@
       </c>
       <c r="L106" s="3"/>
       <c r="M106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15715470000000004</v>
       </c>
+      <c r="N106" s="7">
+        <f t="shared" si="5"/>
+        <v>4.3293574999999986</v>
+      </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jun 18</v>
       </c>
       <c r="C107" s="2">
@@ -26309,16 +26736,20 @@
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.16355380000000003</v>
       </c>
+      <c r="N107" s="7">
+        <f t="shared" si="5"/>
+        <v>3.5771775999999993</v>
+      </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B108" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jul 18</v>
       </c>
       <c r="C108" s="2">
@@ -26350,16 +26781,20 @@
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.21214879999999997</v>
       </c>
+      <c r="N108" s="7">
+        <f t="shared" si="5"/>
+        <v>3.6269659999999995</v>
+      </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Aug 18</v>
       </c>
       <c r="C109" s="2">
@@ -26391,16 +26826,20 @@
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.11628189999999999</v>
       </c>
+      <c r="N109" s="7">
+        <f t="shared" si="5"/>
+        <v>3.4614959999999986</v>
+      </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sep 18</v>
       </c>
       <c r="C110" s="2">
@@ -26432,16 +26871,20 @@
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18670690000000001</v>
       </c>
+      <c r="N110" s="7">
+        <f t="shared" si="5"/>
+        <v>3.773928699999999</v>
+      </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Oct 18</v>
       </c>
       <c r="C111" s="2">
@@ -26473,16 +26916,20 @@
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.229126</v>
       </c>
+      <c r="N111" s="7">
+        <f t="shared" si="5"/>
+        <v>5.8330882999999991</v>
+      </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Nov 18</v>
       </c>
       <c r="C112" s="2">
@@ -26514,16 +26961,20 @@
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5318900000000012E-2</v>
       </c>
+      <c r="N112" s="7">
+        <f t="shared" si="5"/>
+        <v>7.1487560999999991</v>
+      </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dec 18</v>
       </c>
       <c r="C113" s="2">
@@ -26555,16 +27006,20 @@
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20050069999999998</v>
       </c>
+      <c r="N113" s="7">
+        <f t="shared" si="5"/>
+        <v>8.0787388000000018</v>
+      </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jan 19</v>
       </c>
       <c r="C114" s="2">
@@ -26596,16 +27051,20 @@
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.51245569999999996</v>
       </c>
+      <c r="N114" s="7">
+        <f t="shared" si="5"/>
+        <v>9.7358774999999991</v>
+      </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Feb 19</v>
       </c>
       <c r="C115" s="2">
@@ -26637,16 +27096,20 @@
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.45335440000000005</v>
       </c>
+      <c r="N115" s="7">
+        <f t="shared" si="5"/>
+        <v>7.3894844000000015</v>
+      </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mar 19</v>
       </c>
       <c r="C116" s="2">
@@ -26678,16 +27141,20 @@
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39669330000000003</v>
       </c>
+      <c r="N116" s="7">
+        <f t="shared" si="5"/>
+        <v>7.1796851000000013</v>
+      </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Apr 19</v>
       </c>
       <c r="C117" s="2">
@@ -26719,16 +27186,20 @@
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3810806</v>
       </c>
+      <c r="N117" s="7">
+        <f t="shared" si="5"/>
+        <v>8.0736590999999986</v>
+      </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B118" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>May 19</v>
       </c>
       <c r="C118" s="2">
@@ -26760,16 +27231,20 @@
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.2004999999999941E-3</v>
       </c>
+      <c r="N118" s="7">
+        <f t="shared" si="5"/>
+        <v>5.4084708999999993</v>
+      </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B119" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jun 19</v>
       </c>
       <c r="C119" s="2">
@@ -26801,16 +27276,20 @@
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7546400000000015E-2</v>
       </c>
+      <c r="N119" s="7">
+        <f t="shared" si="5"/>
+        <v>4.4428159000000003</v>
+      </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jul 19</v>
       </c>
       <c r="C120" s="2">
@@ -26844,16 +27323,20 @@
         <v>-9.2700000000000004E-5</v>
       </c>
       <c r="M120" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.40721000000000002</v>
       </c>
+      <c r="N120" s="7">
+        <f t="shared" si="5"/>
+        <v>3.9377978000000007</v>
+      </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Aug 19</v>
       </c>
       <c r="C121" s="2">
@@ -26887,16 +27370,20 @@
         <v>-1.9599999999999999E-4</v>
       </c>
       <c r="M121" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.45587469999999997</v>
       </c>
+      <c r="N121" s="7">
+        <f t="shared" si="5"/>
+        <v>3.3926867000000001</v>
+      </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B122" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Sep 19</v>
       </c>
       <c r="C122" s="2">
@@ -26930,16 +27417,20 @@
         <v>-9.8881999999999998E-3</v>
       </c>
       <c r="M122" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7296999999999765E-3</v>
       </c>
+      <c r="N122" s="7">
+        <f t="shared" si="5"/>
+        <v>4.0044715999999996</v>
+      </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B123" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Oct 19</v>
       </c>
       <c r="C123" s="2">
@@ -26973,16 +27464,20 @@
         <v>-0.1083335</v>
       </c>
       <c r="M123" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.1452099999999981E-2</v>
       </c>
+      <c r="N123" s="7">
+        <f t="shared" si="5"/>
+        <v>6.1173051000000012</v>
+      </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B124" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Nov 19</v>
       </c>
       <c r="C124" s="2">
@@ -27016,16 +27511,20 @@
         <v>-6.9999999999999999E-6</v>
       </c>
       <c r="M124" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15338409999999997</v>
       </c>
+      <c r="N124" s="7">
+        <f t="shared" si="5"/>
+        <v>7.9897029000000037</v>
+      </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B125" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dec 19</v>
       </c>
       <c r="C125" s="2">
@@ -27059,16 +27558,20 @@
         <v>-3.2065900000000001E-2</v>
       </c>
       <c r="M125" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0870900000000006E-2</v>
       </c>
+      <c r="N125" s="7">
+        <f t="shared" si="5"/>
+        <v>8.1547231000000018</v>
+      </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B126" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jan 20</v>
       </c>
       <c r="C126" s="2">
@@ -27102,16 +27605,20 @@
         <v>-7.84049E-2</v>
       </c>
       <c r="M126" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55893210000000004</v>
       </c>
+      <c r="N126" s="7">
+        <f t="shared" si="5"/>
+        <v>5.6633377000000005</v>
+      </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B127" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Feb 20</v>
       </c>
       <c r="C127" s="2">
@@ -27145,16 +27652,20 @@
         <v>-1.0454400000000001E-2</v>
       </c>
       <c r="M127" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58138469999999998</v>
       </c>
+      <c r="N127" s="7">
+        <f t="shared" si="5"/>
+        <v>5.6018573999999992</v>
+      </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Mar 20</v>
       </c>
       <c r="C128" s="2">
@@ -27188,16 +27699,20 @@
         <v>0</v>
       </c>
       <c r="M128" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21678050000000001</v>
       </c>
+      <c r="N128" s="7">
+        <f t="shared" si="5"/>
+        <v>5.540241599999999</v>
+      </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B129" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Apr 20</v>
       </c>
       <c r="C129" s="2">
@@ -27231,16 +27746,20 @@
         <v>-0.32970470000000002</v>
       </c>
       <c r="M129" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.55802229999999997</v>
       </c>
+      <c r="N129" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5220531000000008</v>
+      </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B130" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>May 20</v>
       </c>
       <c r="C130" s="2">
@@ -27274,16 +27793,20 @@
         <v>-0.3908566</v>
       </c>
       <c r="M130" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.1951599999999967E-2</v>
       </c>
+      <c r="N130" s="7">
+        <f t="shared" si="5"/>
+        <v>3.832282199999999</v>
+      </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B131" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Jun 20</v>
       </c>
       <c r="C131" s="2">
@@ -27317,16 +27840,20 @@
         <v>-0.39318920000000002</v>
       </c>
       <c r="M131" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17854</v>
       </c>
+      <c r="N131" s="7">
+        <f t="shared" si="5"/>
+        <v>3.5038513000000004</v>
+      </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B132" s="6" t="str">
-        <f t="shared" ref="B132:B152" si="4">TEXT(A132,"mmm yy")</f>
+        <f t="shared" ref="B132:B152" si="6">TEXT(A132,"mmm yy")</f>
         <v>Jul 20</v>
       </c>
       <c r="C132" s="2">
@@ -27360,16 +27887,20 @@
         <v>-0.41760370000000002</v>
       </c>
       <c r="M132" s="7">
-        <f t="shared" ref="M132:M152" si="5">H132+K132</f>
+        <f t="shared" ref="M132:M152" si="7">H132+K132</f>
         <v>-0.14415099999999997</v>
       </c>
+      <c r="N132" s="7">
+        <f t="shared" ref="N132:N152" si="8">SUM(C132:L132)</f>
+        <v>3.7739680999999994</v>
+      </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B133" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Aug 20</v>
       </c>
       <c r="C133" s="2">
@@ -27403,16 +27934,20 @@
         <v>-0.30952200000000002</v>
       </c>
       <c r="M133" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.37660000000001E-3</v>
       </c>
+      <c r="N133" s="7">
+        <f t="shared" si="8"/>
+        <v>3.6785353000000001</v>
+      </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B134" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Sep 20</v>
       </c>
       <c r="C134" s="2">
@@ -27446,16 +27981,20 @@
         <v>-0.29064859999999998</v>
       </c>
       <c r="M134" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22263160000000001</v>
       </c>
+      <c r="N134" s="7">
+        <f t="shared" si="8"/>
+        <v>4.1617262000000013</v>
+      </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B135" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Oct 20</v>
       </c>
       <c r="C135" s="2">
@@ -27489,16 +28028,20 @@
         <v>-1.2799999999999999E-5</v>
       </c>
       <c r="M135" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.22016949999999996</v>
       </c>
+      <c r="N135" s="7">
+        <f t="shared" si="8"/>
+        <v>6.1130876999999995</v>
+      </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B136" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Nov 20</v>
       </c>
       <c r="C136" s="2">
@@ -27532,16 +28075,20 @@
         <v>0</v>
       </c>
       <c r="M136" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11785889999999999</v>
       </c>
+      <c r="N136" s="7">
+        <f t="shared" si="8"/>
+        <v>6.7927692999999998</v>
+      </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B137" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Dec 20</v>
       </c>
       <c r="C137" s="2">
@@ -27575,16 +28122,20 @@
         <v>0</v>
       </c>
       <c r="M137" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20852669999999998</v>
       </c>
+      <c r="N137" s="7">
+        <f t="shared" si="8"/>
+        <v>8.6191615000000006</v>
+      </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B138" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Jan 21</v>
       </c>
       <c r="C138" s="2">
@@ -27618,16 +28169,20 @@
         <v>0</v>
       </c>
       <c r="M138" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.38417090000000004</v>
       </c>
+      <c r="N138" s="7">
+        <f t="shared" si="8"/>
+        <v>9.8308906999999994</v>
+      </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B139" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Feb 21</v>
       </c>
       <c r="C139" s="2">
@@ -27661,16 +28216,20 @@
         <v>0</v>
       </c>
       <c r="M139" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.65824589999999994</v>
       </c>
+      <c r="N139" s="7">
+        <f t="shared" si="8"/>
+        <v>7.9286480999999984</v>
+      </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B140" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Mar 21</v>
       </c>
       <c r="C140" s="2">
@@ -27704,16 +28263,20 @@
         <v>0</v>
       </c>
       <c r="M140" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.11655750000000004</v>
       </c>
+      <c r="N140" s="7">
+        <f t="shared" si="8"/>
+        <v>7.645703199999998</v>
+      </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B141" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Apr 21</v>
       </c>
       <c r="C141" s="2">
@@ -27747,16 +28310,20 @@
         <v>0</v>
       </c>
       <c r="M141" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.53845239999999994</v>
       </c>
+      <c r="N141" s="7">
+        <f t="shared" si="8"/>
+        <v>6.8450702000000003</v>
+      </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B142" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>May 21</v>
       </c>
       <c r="C142" s="2">
@@ -27790,16 +28357,20 @@
         <v>-3.9999999999999998E-7</v>
       </c>
       <c r="M142" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.4490599999999982E-2</v>
       </c>
+      <c r="N142" s="7">
+        <f t="shared" si="8"/>
+        <v>5.5786284999999989</v>
+      </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B143" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Jun 21</v>
       </c>
       <c r="C143" s="2">
@@ -27833,16 +28404,20 @@
         <v>-7.3982699999999998E-2</v>
       </c>
       <c r="M143" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.9826199999999986E-2</v>
       </c>
+      <c r="N143" s="7">
+        <f t="shared" si="8"/>
+        <v>4.3668028999999997</v>
+      </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B144" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Jul 21</v>
       </c>
       <c r="C144" s="2">
@@ -27876,16 +28451,20 @@
         <v>-0.1116074</v>
       </c>
       <c r="M144" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.2497673</v>
       </c>
+      <c r="N144" s="7">
+        <f t="shared" si="8"/>
+        <v>3.3982362999999998</v>
+      </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B145" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Aug 21</v>
       </c>
       <c r="C145" s="2">
@@ -27919,16 +28498,20 @@
         <v>-9.2701000000000006E-2</v>
       </c>
       <c r="M145" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.7504478</v>
       </c>
+      <c r="N145" s="7">
+        <f t="shared" si="8"/>
+        <v>3.308153400000001</v>
+      </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B146" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Sep 21</v>
       </c>
       <c r="C146" s="2">
@@ -27962,16 +28545,20 @@
         <v>-0.13675029999999999</v>
       </c>
       <c r="M146" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.17848710000000001</v>
       </c>
+      <c r="N146" s="7">
+        <f t="shared" si="8"/>
+        <v>3.7180209999999998</v>
+      </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B147" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Oct 21</v>
       </c>
       <c r="C147" s="2">
@@ -28005,16 +28592,20 @@
         <v>-0.34628130000000001</v>
       </c>
       <c r="M147" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.8548299999999978E-2</v>
       </c>
+      <c r="N147" s="7">
+        <f t="shared" si="8"/>
+        <v>4.8428945999999984</v>
+      </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B148" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Nov 21</v>
       </c>
       <c r="C148" s="2">
@@ -28048,16 +28639,20 @@
         <v>-6.5523799999999993E-2</v>
       </c>
       <c r="M148" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20728410000000003</v>
       </c>
+      <c r="N148" s="7">
+        <f t="shared" si="8"/>
+        <v>7.0332574999999995</v>
+      </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B149" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Dec 21</v>
       </c>
       <c r="C149" s="2">
@@ -28091,16 +28686,20 @@
         <v>-5.22496E-2</v>
       </c>
       <c r="M149" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10889570000000004</v>
       </c>
+      <c r="N149" s="7">
+        <f t="shared" si="8"/>
+        <v>8.0400150000000021</v>
+      </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B150" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Jan 22</v>
       </c>
       <c r="C150" s="2">
@@ -28134,16 +28733,20 @@
         <v>-4.7984300000000001E-2</v>
       </c>
       <c r="M150" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43766649999999996</v>
       </c>
+      <c r="N150" s="7">
+        <f t="shared" si="8"/>
+        <v>8.7225663000000004</v>
+      </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B151" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Feb 22</v>
       </c>
       <c r="C151" s="2">
@@ -28177,16 +28780,20 @@
         <v>0</v>
       </c>
       <c r="M151" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2064500000000022E-2</v>
       </c>
+      <c r="N151" s="7">
+        <f t="shared" si="8"/>
+        <v>6.5282299999999998</v>
+      </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B152" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Mar 22</v>
       </c>
       <c r="C152" s="2">
@@ -28220,16 +28827,23 @@
         <v>-2.1692999999999999E-3</v>
       </c>
       <c r="M152" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33093050000000002</v>
+      </c>
+      <c r="N152" s="7">
+        <f t="shared" si="8"/>
+        <v>6.6278505999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R79" r:id="rId1" xr:uid="{56BB6F12-B465-A145-B29B-0DB456FE4AFC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/gas-demand-and-supply-so.xlsx
+++ b/data/gas-demand-and-supply-so.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C892F0-1355-A74F-85B8-9A8FDFF5A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B04906-636D-4A40-849B-5B0DDBD4F54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="monthly lng" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'monthly lng'!$N$3:$N$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'monthly lng'!$O$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'monthly lng'!$O$3:$O$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'monthly lng'!$P$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'monthly lng'!$P$3:$P$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'monthly lng'!$N$3:$N$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'monthly lng'!$O$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'monthly lng'!$O$3:$O$15</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'monthly lng'!$P$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'monthly lng'!$P$3:$P$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="182">
   <si>
     <t>Gas demand and supply source by month (GB)</t>
   </si>
@@ -538,6 +551,48 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -700,6 +755,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1047,7 +1108,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,11 +1129,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10458,6 +10520,2373 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.24768180000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.18842809999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.5551102999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.42416E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.90060229999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.1466875999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>February</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.1897576</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.33369330000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3190592000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>6.8696599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.8972361</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2.0512907999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.76427160000000005</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.46522960000000002</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.5816593999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.6152199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.3212229</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2.1545969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.0412086</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.94761189999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.48255169999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.2213611000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.1195887</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.1119043</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2506043</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.70784060000000004</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.21718019999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.0557618</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.5933310000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.4289556999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$G$2:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.39928550000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.28048869999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.1642855</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.40196130000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.1610016999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.0167358</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$H$2:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.93247639999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.52637610000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.16827030000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.3945497</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.65259619999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.1697668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>August</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.61499709999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.46320339999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.16775229999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.2630345</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.82420959999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.17290849999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>September</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.1233272000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.32515630000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.15454219999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.92868899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.79678439999999995</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.211866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>October</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18099879999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26052570000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6424145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8804574999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69203570000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64303299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>November</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$L$2:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28940199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31939099999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3266800999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2284961000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3169576000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3877706999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25916400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24637429999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3906544999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4983900999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7604776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0119585999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9DA6-2F42-851E-8A1D0610C9E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="160310352"/>
+        <c:axId val="199477136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="160310352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199477136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199477136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160310352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2709953405903227E-2"/>
+          <c:y val="3.7359627000761758E-2"/>
+          <c:w val="0.92014181134404904"/>
+          <c:h val="0.90940215823344128"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$O$3:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5897746000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7150882000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1872372999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.4040762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2961143000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.6306949</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.4925753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83BF-E44D-96A8-F91A53D421FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'monthly lng'!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$P$3:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.9699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5016893000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5635908000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5144449999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9244538000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7199586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6432658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-83BF-E44D-96A8-F91A53D421FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="872820463"/>
+        <c:axId val="872498479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="872820463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872498479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="872498479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>bcm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872820463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79761954719174644"/>
+          <c:y val="8.6680829450745428E-2"/>
+          <c:w val="0.14938771762374803"/>
+          <c:h val="4.2027875547726065E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -15976,7 +18405,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -16164,6 +18595,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>bcm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16562,6 +19048,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>bcm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16680,7 +19221,1347 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.24768180000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.18842809999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.5551102999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.42416E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.90060229999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.1466875999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>February</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.1897576</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.33369330000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3190592000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>6.8696599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.8972361</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2.0512907999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.76427160000000005</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.46522960000000002</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.5816593999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.6152199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.3212229</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2.1545969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.0412086</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.94761189999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.48255169999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.2213611000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.1195887</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.1119043</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>3.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.2506043</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.70784060000000004</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.21718019999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.0557618</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.5933310000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.4289556999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$G$2:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.39928550000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.28048869999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.1642855</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.40196130000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.1610016999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.0167358</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>July</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$H$2:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.93247639999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.52637610000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.16827030000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.3945497</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.65259619999999996</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.1697668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>August</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.61499709999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.46320339999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.16775229999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.2630345</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.82420959999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.17290849999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>September</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.1233272000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.32515630000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.15454219999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.92868899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.79678439999999995</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.211866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>October</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18099879999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26052570000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6424145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8804574999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69203570000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64303299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>November</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$L$2:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28940199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31939099999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3266800999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2284961000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3169576000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3877706999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'monthly lng'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'monthly lng'!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25916400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24637429999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3906544999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4983900999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7604776</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0119585999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-846D-A64E-B2AB-58F1E59E45F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="862404800"/>
+        <c:axId val="872749791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="862404800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872749791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="872749791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="862404800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16961,6 +20842,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17489,6 +21410,1027 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -21148,6 +26090,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -21595,16 +27053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21626,6 +27084,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F41CC2-B8BB-3D2C-791A-5598028ACBAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>329055</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>187377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533192</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350D0FF1-47F1-8FEA-DF67-212B68253597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160310</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>521607</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246D8C9D-0107-24E6-0338-944A470F4ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21931,18 +27502,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R152"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K59" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView topLeftCell="A132" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M155" sqref="M155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" customWidth="1"/>
@@ -21951,20 +27523,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -25477,7 +31049,7 @@
         <f t="shared" si="5"/>
         <v>7.98</v>
       </c>
-      <c r="R79" s="12" t="s">
+      <c r="R79" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -27853,7 +33425,7 @@
         <v>138</v>
       </c>
       <c r="B132" s="6" t="str">
-        <f t="shared" ref="B132:B152" si="6">TEXT(A132,"mmm yy")</f>
+        <f t="shared" ref="B132:B155" si="6">TEXT(A132,"mmm yy")</f>
         <v>Jul 20</v>
       </c>
       <c r="C132" s="2">
@@ -28833,12 +34405,52 @@
       <c r="N152" s="7">
         <f t="shared" si="8"/>
         <v>6.6278505999999995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B153" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>Apr 22</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="E153" s="2">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B154" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>May 22</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="E154" s="2">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B155" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>Jun 22</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="E155" s="2">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R79" r:id="rId1" xr:uid="{56BB6F12-B465-A145-B29B-0DB456FE4AFC}"/>
   </hyperlinks>
@@ -28851,8 +34463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29035,4 +34647,917 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBD7CB2-2977-8344-9522-02331AD727AE}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="K2" s="7">
+        <f>'Ark1'!E3</f>
+        <v>1.34</v>
+      </c>
+      <c r="L2" s="7">
+        <f>'Ark1'!E4</f>
+        <v>1.27</v>
+      </c>
+      <c r="M2" s="7">
+        <f>'Ark1'!E5</f>
+        <v>1.67</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2009</v>
+      </c>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="7">
+        <f>'Ark1'!E6</f>
+        <v>1.54</v>
+      </c>
+      <c r="C3" s="7">
+        <f>'Ark1'!E7</f>
+        <v>1.33</v>
+      </c>
+      <c r="D3" s="7">
+        <f>'Ark1'!E8</f>
+        <v>1.32</v>
+      </c>
+      <c r="E3" s="7">
+        <f>'Ark1'!E9</f>
+        <v>1.72</v>
+      </c>
+      <c r="F3" s="7">
+        <f>'Ark1'!E10</f>
+        <v>1.59</v>
+      </c>
+      <c r="G3" s="7">
+        <f>'Ark1'!E11</f>
+        <v>0.92</v>
+      </c>
+      <c r="H3" s="7">
+        <f>'Ark1'!E12</f>
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="7">
+        <f>'Ark1'!E13</f>
+        <v>1.39</v>
+      </c>
+      <c r="J3" s="7">
+        <f>'Ark1'!E14</f>
+        <v>1.47</v>
+      </c>
+      <c r="K3">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E3)-2)*12,0)</f>
+        <v>1.65</v>
+      </c>
+      <c r="L3">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E4)-3)*12,0)</f>
+        <v>1.79</v>
+      </c>
+      <c r="M3">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E5)-4)*12,0)</f>
+        <v>2.08</v>
+      </c>
+      <c r="N3" s="10">
+        <v>2010</v>
+      </c>
+      <c r="O3" s="7">
+        <f ca="1">SUM(B3:E3)+SUM(L3:M3)</f>
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="P3" s="7">
+        <f ca="1">SUM(F3:K3)</f>
+        <v>7.9699999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B4">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E6)-5)*12,0)</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C4">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E7)-6)*12,0)</f>
+        <v>1.99</v>
+      </c>
+      <c r="D4">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E8)-7)*12,0)</f>
+        <v>2.46</v>
+      </c>
+      <c r="E4">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E9)-8)*12,0)</f>
+        <v>2.68</v>
+      </c>
+      <c r="F4">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E10)-9)*12,0)</f>
+        <v>2.48</v>
+      </c>
+      <c r="G4">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E11)-10)*12,0)</f>
+        <v>2.02</v>
+      </c>
+      <c r="H4">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E12)-11)*12,0)</f>
+        <v>1.86</v>
+      </c>
+      <c r="I4">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E13)-12)*12,0)</f>
+        <v>1.81</v>
+      </c>
+      <c r="J4">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E14)-13)*12,0)</f>
+        <v>1.58</v>
+      </c>
+      <c r="K4" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E4)-2)*12,0)</f>
+        <v>1.73</v>
+      </c>
+      <c r="L4" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E5)-3)*12,0)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M4" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E6)-4)*12,0)</f>
+        <v>1.52</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2011</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" ref="O4:O15" ca="1" si="0">SUM(B4:E4)+SUM(L4:M4)</f>
+        <v>12.22</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4:P15" ca="1" si="1">SUM(F4:K4)</f>
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E7)-5)*12,0)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E8)-6)*12,0)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E9)-7)*12,0)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E10)-8)*12,0)</f>
+        <v>1.68</v>
+      </c>
+      <c r="F5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E11)-9)*12,0)</f>
+        <v>1.34</v>
+      </c>
+      <c r="G5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E12)-10)*12,0)</f>
+        <v>1.02</v>
+      </c>
+      <c r="H5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E13)-11)*12,0)</f>
+        <v>0.65</v>
+      </c>
+      <c r="I5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E14)-12)*12,0)</f>
+        <v>1.63</v>
+      </c>
+      <c r="J5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E15)-13)*12,0)</f>
+        <v>0.61</v>
+      </c>
+      <c r="K5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E5)-2)*12,0)</f>
+        <v>0.37</v>
+      </c>
+      <c r="L5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E6)-3)*12,0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E7)-4)*12,0)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N5" s="10">
+        <v>2012</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.86</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.620000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E8)-5)*12,0)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E9)-6)*12,0)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E10)-7)*12,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E11)-8)*12,0)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E12)-9)*12,0)</f>
+        <v>1.34</v>
+      </c>
+      <c r="G6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E13)-10)*12,0)</f>
+        <v>1.44</v>
+      </c>
+      <c r="H6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E14)-11)*12,0)</f>
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E15)-12)*12,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E16)-13)*12,0)</f>
+        <v>0.36</v>
+      </c>
+      <c r="K6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E6)-2)*12,0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E7)-3)*12,0)</f>
+        <v>0.97</v>
+      </c>
+      <c r="M6" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E8)-4)*12,0)</f>
+        <v>0.27</v>
+      </c>
+      <c r="N6" s="10">
+        <v>2013</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.59</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E9)-5)*12,0)</f>
+        <v>0.24</v>
+      </c>
+      <c r="C7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E10)-6)*12,0)</f>
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E11)-7)*12,0)</f>
+        <v>0.42</v>
+      </c>
+      <c r="E7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E12)-8)*12,0)</f>
+        <v>1.06</v>
+      </c>
+      <c r="F7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E13)-9)*12,0)</f>
+        <v>1.43</v>
+      </c>
+      <c r="G7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E14)-10)*12,0)</f>
+        <v>1.24</v>
+      </c>
+      <c r="H7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E15)-11)*12,0)</f>
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E16)-12)*12,0)</f>
+        <v>1.28</v>
+      </c>
+      <c r="J7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E17)-13)*12,0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="K7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E7)-2)*12,0)</f>
+        <v>0.33</v>
+      </c>
+      <c r="L7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E8)-3)*12,0)</f>
+        <v>0.88</v>
+      </c>
+      <c r="M7" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E9)-4)*12,0)</f>
+        <v>0.91</v>
+      </c>
+      <c r="N7" s="10">
+        <v>2014</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E10)-5)*12,0)</f>
+        <v>0.94</v>
+      </c>
+      <c r="C8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E11)-6)*12,0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="D8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E12)-7)*12,0)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E13)-8)*12,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="F8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E14)-9)*12,0)</f>
+        <v>1.31</v>
+      </c>
+      <c r="G8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E15)-10)*12,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="H8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E16)-11)*12,0)</f>
+        <v>0.88</v>
+      </c>
+      <c r="I8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E17)-12)*12,0)</f>
+        <v>1.25</v>
+      </c>
+      <c r="J8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E18)-13)*12,0)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E8)-2)*12,0)</f>
+        <v>1.39</v>
+      </c>
+      <c r="L8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E9)-3)*12,0)</f>
+        <v>1.28</v>
+      </c>
+      <c r="M8" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E10)-4)*12,0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="N8" s="10">
+        <v>2015</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.68</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7299999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E11)-5)*12,0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="C9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E12)-6)*12,0)</f>
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E13)-7)*12,0)</f>
+        <v>1.02</v>
+      </c>
+      <c r="E9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E14)-8)*12,0)</f>
+        <v>1.0412086</v>
+      </c>
+      <c r="F9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E15)-9)*12,0)</f>
+        <v>1.2506043</v>
+      </c>
+      <c r="G9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E16)-10)*12,0)</f>
+        <v>0.39928550000000002</v>
+      </c>
+      <c r="H9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E17)-11)*12,0)</f>
+        <v>0.93247639999999998</v>
+      </c>
+      <c r="I9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E18)-12)*12,0)</f>
+        <v>0.61499709999999996</v>
+      </c>
+      <c r="J9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E19)-13)*12,0)</f>
+        <v>1.1233272000000001</v>
+      </c>
+      <c r="K9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E9)-2)*12,0)</f>
+        <v>0.18099879999999999</v>
+      </c>
+      <c r="L9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E10)-3)*12,0)</f>
+        <v>0.28940199999999999</v>
+      </c>
+      <c r="M9" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E11)-4)*12,0)</f>
+        <v>0.25916400000000001</v>
+      </c>
+      <c r="N9" s="10">
+        <v>2016</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5897746000000001</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5016893000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E12)-5)*12,0)</f>
+        <v>0.24768180000000001</v>
+      </c>
+      <c r="C10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E13)-6)*12,0)</f>
+        <v>0.1897576</v>
+      </c>
+      <c r="D10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E14)-7)*12,0)</f>
+        <v>0.76427160000000005</v>
+      </c>
+      <c r="E10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E15)-8)*12,0)</f>
+        <v>0.94761189999999995</v>
+      </c>
+      <c r="F10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E16)-9)*12,0)</f>
+        <v>0.70784060000000004</v>
+      </c>
+      <c r="G10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E17)-10)*12,0)</f>
+        <v>0.28048869999999998</v>
+      </c>
+      <c r="H10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E18)-11)*12,0)</f>
+        <v>0.52637610000000001</v>
+      </c>
+      <c r="I10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E19)-12)*12,0)</f>
+        <v>0.46320339999999999</v>
+      </c>
+      <c r="J10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E20)-13)*12,0)</f>
+        <v>0.32515630000000001</v>
+      </c>
+      <c r="K10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E10)-2)*12,0)</f>
+        <v>0.26052570000000003</v>
+      </c>
+      <c r="L10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E11)-3)*12,0)</f>
+        <v>0.31939099999999998</v>
+      </c>
+      <c r="M10" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E12)-4)*12,0)</f>
+        <v>0.24637429999999999</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2017</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7150882000000003</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5635908000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E13)-5)*12,0)</f>
+        <v>0.18842809999999999</v>
+      </c>
+      <c r="C11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E14)-6)*12,0)</f>
+        <v>0.33369330000000003</v>
+      </c>
+      <c r="D11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E15)-7)*12,0)</f>
+        <v>0.46522960000000002</v>
+      </c>
+      <c r="E11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E16)-8)*12,0)</f>
+        <v>0.48255169999999997</v>
+      </c>
+      <c r="F11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E17)-9)*12,0)</f>
+        <v>0.21718019999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E18)-10)*12,0)</f>
+        <v>0.1642855</v>
+      </c>
+      <c r="H11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E19)-11)*12,0)</f>
+        <v>0.16827030000000001</v>
+      </c>
+      <c r="I11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E20)-12)*12,0)</f>
+        <v>0.16775229999999999</v>
+      </c>
+      <c r="J11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E21)-13)*12,0)</f>
+        <v>0.15454219999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E11)-2)*12,0)</f>
+        <v>0.6424145</v>
+      </c>
+      <c r="L11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E12)-3)*12,0)</f>
+        <v>1.3266800999999999</v>
+      </c>
+      <c r="M11" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E13)-4)*12,0)</f>
+        <v>1.3906544999999999</v>
+      </c>
+      <c r="N11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1872372999999996</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5144449999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E14)-5)*12,0)</f>
+        <v>1.5551102999999999</v>
+      </c>
+      <c r="C12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E15)-6)*12,0)</f>
+        <v>1.3190592000000001</v>
+      </c>
+      <c r="D12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E16)-7)*12,0)</f>
+        <v>1.5816593999999999</v>
+      </c>
+      <c r="E12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E17)-8)*12,0)</f>
+        <v>2.2213611000000002</v>
+      </c>
+      <c r="F12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E18)-9)*12,0)</f>
+        <v>2.0557618</v>
+      </c>
+      <c r="G12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E19)-10)*12,0)</f>
+        <v>0.40196130000000002</v>
+      </c>
+      <c r="H12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E20)-11)*12,0)</f>
+        <v>0.3945497</v>
+      </c>
+      <c r="I12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E21)-12)*12,0)</f>
+        <v>0.2630345</v>
+      </c>
+      <c r="J12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E22)-13)*12,0)</f>
+        <v>0.92868899999999999</v>
+      </c>
+      <c r="K12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E12)-2)*12,0)</f>
+        <v>1.8804574999999999</v>
+      </c>
+      <c r="L12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E13)-3)*12,0)</f>
+        <v>2.2284961000000001</v>
+      </c>
+      <c r="M12" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E14)-4)*12,0)</f>
+        <v>2.4983900999999999</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2019</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.4040762</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9244538000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E15)-5)*12,0)</f>
+        <v>1.42416E-2</v>
+      </c>
+      <c r="C13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E16)-6)*12,0)</f>
+        <v>6.8696599999999997E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E17)-7)*12,0)</f>
+        <v>1.6152199999999999E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E18)-8)*12,0)</f>
+        <v>2.1195887</v>
+      </c>
+      <c r="F13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E19)-9)*12,0)</f>
+        <v>1.5933310000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E20)-10)*12,0)</f>
+        <v>1.1610016999999999</v>
+      </c>
+      <c r="H13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E21)-11)*12,0)</f>
+        <v>0.65259619999999996</v>
+      </c>
+      <c r="I13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E22)-12)*12,0)</f>
+        <v>0.82420959999999999</v>
+      </c>
+      <c r="J13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E23)-13)*12,0)</f>
+        <v>0.79678439999999995</v>
+      </c>
+      <c r="K13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E13)-2)*12,0)</f>
+        <v>0.69203570000000003</v>
+      </c>
+      <c r="L13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E14)-3)*12,0)</f>
+        <v>1.3169576000000001</v>
+      </c>
+      <c r="M13" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E15)-4)*12,0)</f>
+        <v>1.7604776</v>
+      </c>
+      <c r="N13" s="10">
+        <v>2020</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2961143000000002</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7199586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E16)-5)*12,0)</f>
+        <v>0.90060229999999997</v>
+      </c>
+      <c r="C14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E17)-6)*12,0)</f>
+        <v>1.8972361</v>
+      </c>
+      <c r="D14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E18)-7)*12,0)</f>
+        <v>2.3212229</v>
+      </c>
+      <c r="E14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E19)-8)*12,0)</f>
+        <v>2.1119043</v>
+      </c>
+      <c r="F14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E20)-9)*12,0)</f>
+        <v>1.4289556999999999</v>
+      </c>
+      <c r="G14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E21)-10)*12,0)</f>
+        <v>1.0167358</v>
+      </c>
+      <c r="H14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$12,(ROW('Ark1'!E22)-11)*12,0)</f>
+        <v>0.1697668</v>
+      </c>
+      <c r="I14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$13,(ROW('Ark1'!E23)-12)*12,0)</f>
+        <v>0.17290849999999999</v>
+      </c>
+      <c r="J14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$14,(ROW('Ark1'!E24)-13)*12,0)</f>
+        <v>0.211866</v>
+      </c>
+      <c r="K14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$3,(ROW('Ark1'!E14)-2)*12,0)</f>
+        <v>0.64303299999999997</v>
+      </c>
+      <c r="L14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$4,(ROW('Ark1'!E15)-3)*12,0)</f>
+        <v>1.3877706999999999</v>
+      </c>
+      <c r="M14" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$5,(ROW('Ark1'!E16)-4)*12,0)</f>
+        <v>2.0119585999999998</v>
+      </c>
+      <c r="N14" s="10">
+        <v>2021</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.6306949</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6432658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$6,(ROW('Ark1'!E17)-5)*12,0)</f>
+        <v>3.1466875999999999</v>
+      </c>
+      <c r="C15" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$7,(ROW('Ark1'!E18)-6)*12,0)</f>
+        <v>2.0512907999999999</v>
+      </c>
+      <c r="D15" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$8,(ROW('Ark1'!E19)-7)*12,0)</f>
+        <v>2.1545969</v>
+      </c>
+      <c r="E15" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$9,(ROW('Ark1'!E20)-8)*12,0)</f>
+        <v>3.14</v>
+      </c>
+      <c r="F15" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$10,(ROW('Ark1'!E21)-9)*12,0)</f>
+        <v>1.85</v>
+      </c>
+      <c r="G15" s="10">
+        <f ca="1">OFFSET('Ark1'!$E$11,(ROW('Ark1'!E22)-10)*12,0)</f>
+        <v>1.28</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10">
+        <v>2022</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.4925753</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:M16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>